--- a/Assets/Spreadsheets/Reborn.xlsx
+++ b/Assets/Spreadsheets/Reborn.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Fame</t>
+  </si>
+  <si>
+    <t>RebornExp</t>
   </si>
 </sst>
 </file>
@@ -308,6 +311,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -320,8 +326,12 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D76" si="1">ROUNDUP((B2/15-5)/3,0)</f>
-        <v>1</v>
+        <f t="shared" ref="D2:D76" si="1">ROUNDUP((B2/15)/1.1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E76" si="2">ROUNDUP((B2/15)/2.1,0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -336,7 +346,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -351,7 +365,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -366,7 +384,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -381,7 +403,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -396,7 +422,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -411,7 +441,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -426,7 +460,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -441,7 +479,11 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -456,7 +498,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -471,7 +517,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +536,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -501,7 +555,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +574,11 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -531,7 +593,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -546,7 +612,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -561,7 +631,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -576,7 +650,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -591,7 +669,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +688,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +707,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -636,7 +726,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -651,7 +745,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -666,7 +764,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -681,7 +783,11 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -696,7 +802,11 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -711,7 +821,11 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -726,7 +840,11 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -741,7 +859,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -756,7 +878,11 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -771,7 +897,11 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -786,7 +916,11 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -801,7 +935,11 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +954,11 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -831,7 +973,11 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -846,7 +992,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -861,7 +1011,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -876,7 +1030,11 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -891,7 +1049,11 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -906,7 +1068,11 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -921,7 +1087,11 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -936,7 +1106,11 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -951,7 +1125,11 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -966,7 +1144,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -981,7 +1163,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -996,7 +1182,11 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1011,7 +1201,11 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -1026,7 +1220,11 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1041,7 +1239,11 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -1056,7 +1258,11 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -1071,7 +1277,11 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -1086,7 +1296,11 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -1101,7 +1315,11 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -1116,7 +1334,11 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -1131,7 +1353,11 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -1146,7 +1372,11 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1161,7 +1391,11 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -1176,7 +1410,11 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1191,7 +1429,11 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -1206,7 +1448,11 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -1221,7 +1467,11 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -1236,7 +1486,11 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -1251,7 +1505,11 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -1266,7 +1524,11 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -1281,7 +1543,11 @@
       </c>
       <c r="D66" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -1296,7 +1562,11 @@
       </c>
       <c r="D67" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -1311,7 +1581,11 @@
       </c>
       <c r="D68" s="2">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1600,11 @@
       </c>
       <c r="D69" s="2">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -1341,7 +1619,11 @@
       </c>
       <c r="D70" s="2">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -1356,7 +1638,11 @@
       </c>
       <c r="D71" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1371,7 +1657,11 @@
       </c>
       <c r="D72" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -1386,7 +1676,11 @@
       </c>
       <c r="D73" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -1401,7 +1695,11 @@
       </c>
       <c r="D74" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
@@ -1416,7 +1714,11 @@
       </c>
       <c r="D75" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -1431,7 +1733,11 @@
       </c>
       <c r="D76" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
